--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F564CB6-5984-49D9-BAF4-5D37DFB0C628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A5865-A144-4B3B-BB90-E88C7FF81938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,15 @@
   <si>
     <t>5611507702A/CYLINDER HEAD (R)</t>
   </si>
+  <si>
+    <t>WK06</t>
+  </si>
+  <si>
+    <t>WK07</t>
+  </si>
+  <si>
+    <t>WK08</t>
+  </si>
 </sst>
 </file>
 
@@ -136,10 +145,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -36928,6 +36943,1966 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="18836640"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="657" name="Picture 656">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C622F7-5603-4EAF-B906-53000491E743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="658" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907E963E-A1ED-4B6F-B2B7-91479D43C88C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="659" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7257EC-F8C3-4A3B-8CA9-29DFE8C760E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="660" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B8C11A-2A95-4592-926B-0F7865375618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="661" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6236EC80-2560-4869-A129-D95D8F6AB173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="662" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412E9935-C9D0-4E5E-876C-B58775F2ED09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="663" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB07C3A6-4FD6-4585-B9C0-1FA6FBEF62A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19933920"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="734" name="Picture 733">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E55BFA-4329-4CC9-AB74-06036907FA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="735" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFE3C82-6A31-42CA-98FF-748F1208075E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="736" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22ACBC8-4631-4F42-A7AF-BE0F9ED45AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="737" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB4CCAD-1588-433F-9F84-65AC3BE01A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="738" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D78A20-7149-4624-A1A1-A1A1ECF880B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="739" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E333E874-F26E-46CD-A75E-BA84BAA4FFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="740" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38109442-0108-45E0-959B-376B7463B02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="741" name="Picture 740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47454DE-DA1C-44C4-8423-C1649E104639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="742" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE490F2-5811-46FE-B7FD-D12110458FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="743" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428EDDC6-308B-49B0-A436-4D50938054FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="744" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284891DA-EDE6-4CB4-8365-5B0FEA0806C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="745" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4099B8-40EF-48B1-A8F5-43119DA379A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="746" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07ED52C-A654-4731-9689-A5256ABFD983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="747" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7F9C43-91EC-4BDD-95E8-6D79EADA1E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="748" name="Picture 747">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA23494-5A93-41C7-8460-5A98664F3DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="749" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045F66A6-4ADC-4774-A0DF-6DC6CAD9428C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="750" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD58335-33C8-4F72-B508-5EB77D6EDAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="751" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04DAB84-0D92-4C47-8098-2F3B7BFD3B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="752" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A054F6B2-3C68-4F15-8176-73386BA798D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="753" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75296599-C421-4849-AE83-9B9E4D719F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="754" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC498C16-8014-4FFE-834A-B708D9105926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="755" name="Picture 754">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA6D930-C5DC-4A06-86E9-19517BF30B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="756" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FAD018-9597-42B2-B4A6-0EB15039A436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="757" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A408CBBB-EE49-429C-9C75-C55403BD9985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="758" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C11987-E92F-44E1-999C-C3A68F7059A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="759" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3753DF74-AC6B-4751-99D3-539BB73A15E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="760" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3580EA-963D-4ADC-9706-F7982580397D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="761" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBF7CD8-0E39-41B1-8A95-544D8921D745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20116800"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -37248,1230 +39223,1629 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S115" sqref="S115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44228</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44228</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44228</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44228</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44228</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44228</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44228</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44229</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44229</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44229</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44229</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44229</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44229</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44230</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44230</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44230</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44230</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44230</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44231</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44231</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44231</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44231</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44231</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44231</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44232</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44232</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44232</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44232</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44232</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44232</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44233</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44233</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44233</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44233</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44235</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44235</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44235</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44235</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44235</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44235</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44236</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44236</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
         <v>22</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44236</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44236</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44236</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1008</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44236</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
         <v>11</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44236</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44236</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44236</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44237</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44237</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44237</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44237</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44237</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44237</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>512</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44237</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
         <v>27</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44238</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
         <v>11</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44238</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
         <v>12</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44238</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44238</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44238</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44238</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44238</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44238</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44238</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44238</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
         <v>25</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44238</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
         <v>26</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44238</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
         <v>27</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44238</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44239</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
         <v>11</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44239</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44239</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44239</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44239</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
         <v>1</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44239</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44240</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
         <v>27</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44240</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
         <v>11</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44240</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
         <v>12</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>160</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44240</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44240</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44240</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
         <v>28</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44240</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44240</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44240</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
         <v>1</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44241</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
         <v>1</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44241</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
         <v>27</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>512</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44242</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44242</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44242</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>28</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44242</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>1</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44242</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44242</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
         <v>14</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44242</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
         <v>27</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>256</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44242</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44242</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44243</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
         <v>1</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44243</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
         <v>2</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>420</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44243</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
         <v>14</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44243</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
         <v>25</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44243</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" t="s">
         <v>27</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>512</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44244</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44244</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>16</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>160</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44244</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44244</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>1</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44244</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>2</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>360</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44244</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>14</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44244</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
         <v>27</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
+  <autoFilter ref="A1:D107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A5865-A144-4B3B-BB90-E88C7FF81938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7505BA0-B18B-4216-A305-B03F93099B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -38903,6 +38903,398 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="20116800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="713" name="Picture 712">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1755BC9F-743F-4904-847E-69AA1080C8BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="714" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AFA7D1-6CB2-4C6C-A9F6-D202A1F58820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="715" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B37AA54-F2B1-4A18-8E63-A3E47CC6450E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="716" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDE0F73-67D9-4A67-A12D-F01D180154BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="717" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903B7B93-8A6D-48CC-8BD2-E638BE4BD6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="718" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA070109-B532-4256-A775-FCBC37E74E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="719" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852541D6-2D50-402B-9A73-36EBA770488B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20848320"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -39223,10 +39615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S115" sqref="S115"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40843,6 +41235,20 @@
         <v>204</v>
       </c>
     </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7505BA0-B18B-4216-A305-B03F93099B4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20870F1-B019-4F3B-86C8-977451BF8F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,21 @@
   <si>
     <t>WK08</t>
   </si>
+  <si>
+    <t>Z0009115A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
+  <si>
+    <t>WK09</t>
+  </si>
+  <si>
+    <t>5611514600A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>T46496AA/CYLINDER HEAD (R) ,P558 V6</t>
+  </si>
+  <si>
+    <t>Z0009112A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
 </sst>
 </file>
 
@@ -39295,6 +39310,8238 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="20848320"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="706" name="Picture 705">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D36562A0-1F28-41C4-9C63-DCCF7CFBDB88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="707" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDEFD2B-15A8-47BE-B4CA-83994BDA54A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="708" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C26A508E-004E-4A77-B4AB-6B89956BD88E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="709" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2028A8E-8D7E-4D5D-AAD5-A56EEB4B2B58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="710" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98410DBC-D22B-4981-ACE9-BDDF32143486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="711" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6B85D4-67F7-404B-B75C-BD076B1BE94A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="712" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5615B0BE-2E29-4732-AC63-92E63C6506FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21031200"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="874" name="Picture 873">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022E32F4-F550-4DEF-B5B3-E53D3C7A7EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="875" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBEB1C06-012A-4D5D-A957-FC8F5F8BD04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="876" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D89124E-67E4-49C1-8BF4-0DDBC197679F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="877" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0C40BD-FAAA-442E-BCAB-9F6768C47306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="878" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F30193D-2A82-4815-924A-1BFBD8C4CD97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="879" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27ED528-9A11-48A5-91C2-18DA6A33A842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="880" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA640F1-3B2E-48E5-8C10-B2EC579DEAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="881" name="Picture 880">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3A4E34-C672-427C-A13C-2505D0BAA2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="882" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6CE47C-072C-4066-B93C-058A955DD4D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="883" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2AA219-E32F-42D3-9C66-F95B9449F71F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="884" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA31B6B-43D2-47D7-9C13-86157AE37042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="885" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C3C94E-E789-401C-A022-D83D9E89BE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="886" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AED8AD4-BF40-46F3-B291-1FA837F69643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="887" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A94D70D-44E4-4CC2-933A-3424879B7C49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="888" name="Picture 887">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C149851C-AD25-4B3F-9BA9-C16E9BFDBBC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="889" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125349B7-137B-4B4F-8B0A-FACCD6A45E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="890" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CB5ABC-E0D3-4FF8-8969-040DF50A1348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="891" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDC0C48-986E-4957-98AB-F1869CFA2A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="892" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558030BF-9C56-43FF-BE88-13B9BD6DB210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="893" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EBBF85-1759-4C03-A8DD-6F106BC3407F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="894" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F383A5-F718-43B1-ABC7-BB5B45EE9E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="895" name="Picture 894">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9E3604-F16E-465E-946A-86275A16B258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="896" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75870856-D17F-47E5-9295-5E2B74B278F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="897" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25792041-E865-4591-AB83-0CCADD4BFFB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="898" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC593E2-2E76-4986-BE9D-5A44AE277470}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="899" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF8DC77-2796-4D1E-A32F-B3F957B34BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="900" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0452E4-FF91-43CC-B61A-A142F4942E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="901" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CDEFE2-2055-405E-A1EE-10F2ED787E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="965" name="Picture 964">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F86DE28-BD39-4B83-8F09-190F3CB98ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="966" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E83583E-59D6-489B-B75C-C4612C268B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="967" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAB9052-1E3F-4569-82FF-388BABC8602F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="968" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D7FEA6-E477-40DC-864A-1B6D4C31D2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="969" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4F2FC2-4190-4106-A8C8-BF635A58900E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="970" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9E9EFD-0D07-4596-AE65-3153BB89FB03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="971" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD96856F-0A39-4456-9FFA-5632DE75424E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="972" name="Picture 971">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330FC7F0-D469-4994-8F20-B2F27840EEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="973" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A08561-3BF6-40E1-B17A-B0DC2E602E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="974" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6F3C97-3D0B-4FF4-AFBF-0C520E51FE48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="975" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B765AC7F-68A5-43BA-A2F4-A09518380FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="976" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E521E1AE-98BF-46F2-94B4-C3DA89A12669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="977" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4650E65B-6C9E-40FF-B40E-8737C6DC9550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="978" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610C117F-87F6-496A-85CF-AE4892A50E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="979" name="Picture 978">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6287A5A-02D4-4343-9806-2141EA9C780C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="980" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C042FE2-06AD-4CF4-951D-67F5D92E2DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="981" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E632A8-AB03-4963-A00D-4445A74B8AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="982" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78B3522-25F1-4544-97D6-958E3E829BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="983" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85493CFB-F3EB-4097-A77B-D2D7E7924552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="984" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DA6BBD-29DB-420A-B839-2F8C21972D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="985" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D7A094-E381-4987-A5A5-289BDEEB26B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21214080"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="986" name="Picture 985">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5014F-8331-4C78-9DBB-C7A307D98D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="987" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339739F9-FC70-4BE7-B2BD-89CEFCE073E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="988" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A8246B-C3ED-4AE7-BD8B-4856C7F65324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="989" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FE9DA7-8F06-45DA-A268-214464E4EDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="990" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC0A968-237E-4BF5-9920-D0406225B5E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="991" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9C9491-FA6E-43B9-AF72-221B18E4868D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="992" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A0D8B8-AFD3-43F9-A23E-D9743927160D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22494240"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1063" name="Picture 1062">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94524785-6F62-43FD-A612-765B45C7B079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1064" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DEEBE9-7F04-47BE-8A38-33281CC4751F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1065" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DA093B-C13E-4426-B6B3-14E88D3EF2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1066" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBBF7E8-04BF-4587-896D-305631A7EB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1067" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89CD5C1-9046-4982-8580-8F6530D244EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1068" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD50E99-3E3C-42C9-AC41-8903346E3A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1069" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DA314D-B2FC-474A-A265-2D1018F3FFCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1112" name="Picture 1111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69D2EAF-4868-4F99-91C9-CE6E124749F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1113" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D04AD6-997F-4A8E-914C-54FE19948DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1114" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A78B484-79AF-44A7-B222-BD671AE65491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1115" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1832F46E-BF36-405F-B2A7-C07EA75DF241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1116" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E126490C-F8F6-4755-B6AD-1E3F8D83C989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1117" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC4F8D8-8882-4744-B0DE-46B74C44CC77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1118" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73372D9E-BC12-478E-97C3-2902BA5D8DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1119" name="Picture 1118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7250BA-DF58-4247-8694-E8E29846C70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1120" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEB50C2-4CEF-4BE6-955F-37D6EF5E5D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1121" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD71193-A8E2-4BB6-9C67-DBA632E165D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1122" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FBD673-CF7C-4D83-BE5E-43ED5431EF73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1123" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D328713F-5646-4B39-BA80-E015C3378887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1124" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA8B037-5406-4D62-BDF1-D247BB321ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1125" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9473D32A-6565-4DEA-A017-5AC409621040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1126" name="Picture 1125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73450EA3-40A2-4614-AE07-CDB3E48FCC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1127" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F05B2B-7144-47F6-BA4D-C9D03474DCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1128" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92996CFC-5B68-4841-ADD0-EFD8E95875D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1129" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9AA35D-45CC-4FBE-BABD-19FC42A04B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1130" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5ACD5AB-5196-42F3-AFB9-7D156E100AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1131" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7018B0E8-4E98-4343-A9F6-509EF16B4F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1132" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE66C052-3C6A-40D5-8FB0-FCADA5CF2FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1133" name="Picture 1132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CC4DBE-F0A5-4034-B8F8-50F3F1F30CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1134" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49FCB9B-FDD8-4D15-A8A3-47C7EAB33893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1135" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE9FA01-660A-4C40-8B1B-B39657AC836E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1136" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8E7DC0-06E2-4D54-B744-E36C617DF5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1137" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686AA545-FD7C-4E53-8CB0-C07C0D083B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1138" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785E3EB8-D708-4D33-916F-E836ACD38811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1139" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B87874-2555-45A4-AA84-38A32EEE58EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22677120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1140" name="Picture 1139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E127D4B-81F5-4CE7-B51D-9913795F7EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1141" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E69DE47-9C9A-4764-9BFD-5CB5E1739271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1142" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188CF63B-D4F8-4B47-A005-84755BA172A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1143" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE54800-43C9-4BE3-8B15-080B91A1B374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1144" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3104DACD-E1D4-4121-B278-51AFF92877AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1145" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECAC70F-95DA-4EC2-B7D2-B1F70A660540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1146" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B32F629-814E-4A90-B54A-8CBD36C56459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23591520"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1182" name="Picture 1181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{112203AC-21DD-44BD-9BC2-ED986F5867EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1183" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C85BAAD-68E3-4288-B740-61A2A43D8123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1184" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212B22B2-E21A-43DF-AAA1-5821A5F0EA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1185" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED41ECA-FD9F-47BE-84B1-6B45AF1C8267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1186" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9E3518-C675-49F6-8F6E-E354D8177E55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1187" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D186B0-E990-447A-9BC9-7A797494D4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1188" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3E3CB5-5F17-4774-BFE1-98C315721F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1189" name="Picture 1188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8C5FBB-C74E-4A61-96AC-3A07A9D0B20F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1190" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ACEDD1-80F6-4C1C-9303-96164F960CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1191" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49691BE3-C8B8-4AF7-AC37-317EBA0A4E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1192" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C006C048-B97E-4F9F-BEA2-8CD521196118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1193" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3724EA9-0013-4C9B-86A6-74113F2F0872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1194" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C20F226-BDED-41E5-BE6A-830243627487}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1195" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D91CDC1-F198-4315-9C18-531A3CDDA48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1196" name="Picture 1195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62603C1C-5644-4EB7-BBEF-4EB63AEF375D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1197" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5513966-5287-4396-BAA8-FA1491D77784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1198" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3553C5-11B1-4DAE-A8BA-BE584777F4EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1199" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC928788-41FB-4E82-AE68-1C29CBCB1C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1200" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5942588A-C611-4462-B5AB-1AB418A56674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1201" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AD95E1-C92C-4EBB-A57C-B56DC2F8015B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1202" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58166349-991C-4068-8FC8-94E62F11F19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1203" name="Picture 1202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D705EF-1336-4656-8011-DD1D4A6C6454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1204" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA01F98D-4291-436B-9375-73DF52F7152C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1205" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77028D99-5DC5-4A13-8BCF-E85422DA49DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1206" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8885A724-0CE5-4ED6-BF65-0FCA65BD13A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1207" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425E2920-C0F0-4CEC-A18A-6519C1633BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1208" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE6F5B6-A310-4508-8F9B-CD8417A5E85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1209" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8976177A-858E-4743-8ADD-739F1791148A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1210" name="Picture 1209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EFEBC7-0B21-433E-A353-4E4783E17F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1211" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E889CFE8-B0B3-4B85-9030-1A2F9044A793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1212" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33A3DEC-2565-4C09-95D3-892BD05A73CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1213" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93C9CB8-1215-44A0-9DE5-5146C5882E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1214" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326E3774-F986-4E62-9310-DD5069A9E3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1215" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD103F8-20C4-4513-912A-0065FCC78D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1216" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E33ACC35-E56D-4445-A9C2-14AF7582AC2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23774400"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1224" name="Picture 1223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A51DB4-76D7-48F7-8E54-AC3C85073C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1225" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077766CD-8559-4063-902C-EC41FC29EE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1226" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A0CADC-4561-4CCD-964E-F5F6600B11C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1227" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8091A6D1-8D19-4C76-8F0E-A02BDD5A1113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1228" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBA0DC6-41C8-4922-A2B5-BED35658F546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1229" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A24E409-FC19-4954-9839-AD77286D51A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1230" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA43F465-8CFA-4A40-80D0-49DE953F2ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24688800"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -39615,10 +47862,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F106" sqref="F1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41249,6 +49496,300 @@
         <v>400</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20870F1-B019-4F3B-86C8-977451BF8F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC104574-09D6-4C70-B37A-350AABE4CF06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,9 @@
   <si>
     <t>Z0009112A/CYLINDER BLOCK (F) RAW MAT`L</t>
   </si>
+  <si>
+    <t>Z0015679A/CYLINDER BLOCK (R) RAW MAT`L</t>
+  </si>
 </sst>
 </file>
 
@@ -47542,6 +47545,5102 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="24688800"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="846" name="Picture 845">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DBD1F4-5DC8-4875-B641-699F92751C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="847" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D31B22-C686-4C85-B0FF-C42984B02C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="848" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3819C8E-703E-48B8-9C8C-D3B46B52C4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="849" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434A656A-DCF8-4FFC-89BE-680C87048755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="850" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9414030-8E7B-44E9-B29A-B623F6906756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="851" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E271417C-4BBD-4EB8-937A-65AE0DD8ED88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="852" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92940AC6-B551-4432-A3D8-3A83D00449A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24871680"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1175" name="Picture 1174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986A215-F506-45BB-B094-B680AA8B77CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1176" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184EDDD5-491D-4382-A664-097BE47C8935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1177" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B122E3E2-06E6-40AA-87C6-58D880C0D69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1178" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E8C95D-D500-4121-A522-E1561D3A5137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1179" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2181E65A-50A7-4BA0-96BC-4AFE32F0856F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1180" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4848C42C-088F-42D7-BD1C-850D4FD66B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1181" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCD809C-3CCF-467E-BF1A-3471EEE8B9C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1217" name="Picture 1216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EB96F6-88A8-4E94-BAFD-B5BF635DE8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1218" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E66F358F-F183-40E3-BD84-50F8DEF79964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1219" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59294D93-E926-4B64-AF91-95360085BF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1220" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB74D4E-9680-483F-A86C-69E2825EE021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1221" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8133648-E757-4DA9-9CA7-CE985611967C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1222" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C771273-B75F-4E13-B1A8-CFE700F6A14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1223" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D15C81-E3C5-4C2B-8F3F-899A8843D410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1231" name="Picture 1230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A4FF48-FE9E-49E2-9186-1575A2C492BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1232" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD7D676-EC06-4F8B-8B70-632F94FFAC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1233" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBD8750-970C-4170-81A8-38F1BD2C1CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1234" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5ACC98-ED3C-4418-93B9-B640E578A9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1235" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E154AB-01FD-4664-BCD0-24B5A75AD773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1236" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462F345B-7D7A-4113-BF26-B02D1455EF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1237" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751395C6-7961-454C-84DE-092FBD6DD341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1238" name="Picture 1237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C049BA2-A3BA-4BF0-82BC-A388340F824B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1239" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0F3C39-4D59-4EDA-9D10-4BB767CF1E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1240" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6681006B-72E5-4546-BD38-86AB290C9012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1241" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E0CFB7-94AF-4B3E-8E32-CDDE6E8A8DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1242" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA6D38A-E0BE-447F-876A-DA11937681A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1243" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723DEFC0-7F79-4336-A6B7-DFBC3B8458F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1244" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA433569-F24E-4969-9DEC-3C025EA4FC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1245" name="Picture 1244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D511FC1-2B4A-4E62-9D92-0F85829E6C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1246" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9326F454-66A9-480F-A92A-24D53B6D09DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1247" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC3264C-8E7A-4746-84A9-9AEAE29E7779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1248" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFBC895-EB14-40DD-961A-D2B8E99B2AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1249" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FBE3B4-8799-4A9E-9150-DB118BBD74F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1250" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BD33FE-E398-4D0D-A00F-8EC319E82170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1251" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9C8C0-8D30-4D60-9037-48273477D249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1252" name="Picture 1251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B927F3C7-3197-4664-B65B-A264555CA912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1253" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53758BD5-C01D-493B-A465-E3B46BF653EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1254" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC7C864-6913-4D4E-8BDE-969BC506C6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1255" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5384DBE-893E-43ED-BB23-57F4E61D61F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1256" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCFC6B3-F3D1-467E-BDFC-AC4A4CB17C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1257" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712709BF-32B3-4216-BCF6-E5DC09661E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1258" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F4EAB2-19C7-442A-95F0-4EBF88E0B5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1259" name="Picture 1258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2591D814-F5F7-48E7-8E45-0BD8C2C900C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1260" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FB8E90-A776-4959-8F8D-BF63BF5B61B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1261" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFABB0A8-A0B9-4651-86CC-96DEA946E5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1262" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB622E85-6D0C-47A7-A067-60AEDE5F38DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1263" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2C9924-FE4B-44C2-A7DA-5253C3ABA655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1264" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28728D81-99DB-46CE-AB5E-C41D18417600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1265" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3388D3F-424B-439E-AD23-80290E96DBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1266" name="Picture 1265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD99A06-ACE8-46CB-B4F6-5F4E3CBD085C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1267" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C278D4-CB10-4774-BB81-78514CE52179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1268" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB932F9C-185D-480C-843C-ED15BD3F3A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1269" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7884ACE9-470D-47BC-A238-D3966BBA4F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1270" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF84589-130F-4442-9731-50769F01D23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1271" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A519A78-086B-4D24-AC05-9329E1088342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1272" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6285B0-6A1B-47E9-96B5-4810FE8F73BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1273" name="Picture 1272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F5947-9BE9-4F1E-B49E-8DF0015220BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1274" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052741EA-075B-4989-A9C0-1E0308E6451E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1275" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1785F52B-9679-4C9D-ACB9-E4EF94E57FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1276" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69503F0D-2B3B-4308-A087-D8669B310D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1277" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4736C167-F348-41C5-B6B5-1ABF51B45197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1278" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCA7C77-6F59-4E39-8A55-CCC3F2C1A113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1279" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA6D4D2-91BB-406F-98FB-24F8CBC05539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1280" name="Picture 1279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD35B6F7-DDFA-4A46-B31F-FBC82F46A3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1281" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E217ED4-2900-4D32-A0B3-932D4B27FA67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1282" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1257D8E8-834A-4865-8236-A130EA85C778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1283" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D37C59-3580-4D7A-976B-F61BC3497097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1284" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3001B9D9-FBAC-45E9-BD84-21A64E626D3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1285" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22CD75C-AB07-4381-8167-3845CBED7F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1286" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E960B30E-5B3F-4DEA-BF20-F59D8EC23363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1287" name="Picture 1286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71518824-70A3-4AC5-8EE0-4E2523027BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1288" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E96F101-26E5-477C-ABF1-8912F3E69422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1289" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8424C40-2EC4-4593-83B9-A31A1122AAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1290" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37F4A5E-5D15-4477-B67D-566BDDFD9DB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1291" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057D68A3-E39F-47C4-9C09-91C9CB5ED986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1292" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6823AB47-8EF3-4392-BB93-7755D8CA3603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1293" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC91BA2-EDEC-4BF7-9CFC-07374751C567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1294" name="Picture 1293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385E20E6-F128-44DC-81B3-7913142C1191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1295" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C6D122-91B3-46E5-89FF-7D4F0FDFFB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1296" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFAD9C3-281D-4C37-A7B3-8B3542019B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1297" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB8A39F-4016-4EDF-B193-0AC20958D8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1298" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD75556-AEAB-4367-B6D6-0B1C0107419D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1299" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52993EBC-BFB5-41B8-804D-6519EC5B3A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1300" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626298B8-C280-4BD0-8AB7-1080A87769EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25054560"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -47862,10 +52961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F106" sqref="F1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49790,6 +54889,188 @@
         <v>100</v>
       </c>
     </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC104574-09D6-4C70-B37A-350AABE4CF06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36353B5-3A84-465C-92B3-1312D5C09F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -52641,6 +52641,790 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="25054560"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1042" name="Picture 1041">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942D53EB-2FFA-4952-ABB2-2CE323891515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1043" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BBEE6F-A472-4F20-BD00-C0570734185C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89572891-8EBF-458E-A7A5-D0008EBF08B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C27605-DB55-4AE2-8DEE-ECD613778E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1046" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918FE4F3-C4F5-4035-8231-9591F20657BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E68B3B-C693-4B26-915A-4222C7AC4A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1048" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7961FE-B5EB-41F3-BDB0-92662E3E2B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1049" name="Picture 1048">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00EA34C-F09E-4824-A5B3-9ACAAB9C1B40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1050" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2221D16B-EB53-48D7-BAB9-E784602ED741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1051" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F01DE2-E259-40BE-80B6-31D9A860E130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1052" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287E7982-ACF4-494F-A15C-C35AB6BC8AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1053" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9439A0-CFC8-4256-8F7B-BA149FCD61D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1054" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15915E7-8BAC-4038-808F-B32B41E9673D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1055" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF751903-BAC1-40A3-9DF7-50D73EF55B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27249120"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -52961,10 +53745,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G138" sqref="G138"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54858,7 +55642,7 @@
         <v>36</v>
       </c>
       <c r="D135">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -55069,6 +55853,34 @@
       </c>
       <c r="D150">
         <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Deli_Feb_21.xlsx
+++ b/Deli_Feb_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Delivery-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36353B5-3A84-465C-92B3-1312D5C09F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D67B83-C449-4EDB-9140-CA6EF2565BE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B3EF510-4381-4F3C-BC81-B17DD580840B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,12 @@
   <si>
     <t>Z0015679A/CYLINDER BLOCK (R) RAW MAT`L</t>
   </si>
+  <si>
+    <t>5611506803A/CYLINDER HEAD (R)</t>
+  </si>
+  <si>
+    <t>Z0009775A/CYLINDER BLOCK (F) RAW MAT`L</t>
+  </si>
 </sst>
 </file>
 
@@ -53425,6 +53431,5494 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="27249120"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70035F98-DBE7-47F5-AAB1-1713D37629CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2557F526-1704-4A30-A3E8-B978B77B24FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1661083F-8273-4F32-A60C-F281B373C87D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93920F3B-E52C-43FE-AB2C-1A4A4C55E7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C63B12-0709-4207-AD70-3C5EC78BFC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BB4009-54A8-41E3-BB27-444999D188B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F38FE44-946C-423D-B4DC-F5781C66968F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27614880"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1350" name="Picture 1349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8192F93-3DCA-4694-8712-7211793CE5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1351" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518E4326-4F6D-443C-879D-FBBA76CF1543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1352" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE1C647-C208-43F8-BEED-1335AACF75AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1353" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE47CD4B-CDA5-4A7C-BAF5-32EA6D9AE3F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1354" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3FD0B8-32D9-4ABA-8DFF-E029841BB6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1355" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AC636F-FA90-4CE0-8EB8-3285DA6083C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1356" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20113AE5-ED8A-43C5-844B-FE363B9971E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1357" name="Picture 1356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE86E0EE-E926-467C-834C-15845EDA1025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1358" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69C12EF-F7C9-4E42-888F-7AB97447775D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1359" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0049B312-519E-45D7-8C77-73A191DA8A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1360" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD09EB32-D5D9-4F66-B69D-9245AF94483D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1361" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3644A6D-9014-4FD6-AA4A-143F2C7616B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1362" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8281FF9-CE23-4E1A-92E7-887CD9B6EF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1363" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC534F4-760D-4FB0-BC04-1B57524C20A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1364" name="Picture 1363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CECB57-BB36-42FC-935A-2619F6313304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1365" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC76068-AC2A-4217-B518-554B68EB5472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1366" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E901E6D-86FE-4EA8-9F3F-983551776531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1367" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EED8B0C-A5E3-40A6-9F8F-36593EFB9150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1368" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBAF192-61E1-4B9B-AB30-498ABA83FB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1369" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323D018F-A47F-4BCB-B301-41FD11D1BDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1370" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D5148F-F698-4B53-AFA3-66D03C2313B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1371" name="Picture 1370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27105ECB-2ABC-4566-AD16-E9B6A4D6EABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1372" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4E2EDD-6905-4AA7-BA2A-4995AD7DC52D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1373" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615BCC27-BEFB-482A-9221-5F2346A943AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1374" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FEB34B-04E8-4B59-AEC3-1C88F984D91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1375" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F44806A-F87A-43F4-92AA-718EF70AF5CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1376" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAB6564-FE59-41A2-BA3B-C5632575B58A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1377" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63344B1B-668C-4434-8C2B-050A4347EBD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1378" name="Picture 1377">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DCCA3A-4CF9-44C7-8956-87A7350FAD3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1379" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9075FD5B-325D-406B-84D5-F6F6AC8B19CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1380" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E82444-4851-4129-8A38-2C95082045C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1381" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FC473F-99F7-42EA-B593-A7098871DEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1382" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2B37F7-A54E-4C71-BCB2-3AB9DBB18CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1383" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50082A6-B53C-4187-BD36-28AB223AED97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1384" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEAC222-6F06-4472-932E-E193C272AB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1385" name="Picture 1384">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CECB31-09ED-4651-BDC6-2A21903B8C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1386" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B0F2B9-27B9-479D-8949-58ABDA61A2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1387" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE3B8B0-6888-457E-802B-C6D7642FF261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1388" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21A8D37-8BA8-4195-9748-132CACA69DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1389" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57889212-7C87-4210-A847-BBFFC07BBAB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1390" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFCCEC3-5AD1-4C4E-902B-DC37B77DC4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1391" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042F2F4B-8919-4FEB-BA31-864CDB6B3B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1392" name="Picture 1391">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C3898A-AF33-4B0B-909F-8D2DC5E93EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1393" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7C2E3C-544C-4ECE-8AAE-CCE6111A48B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1394" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F69E2AC-3CB8-4DCF-B4C1-ADF2DF17652B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1395" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA96379-3938-4413-803A-3BABFF59AE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1396" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251FD5BE-2CA9-4960-A259-A7FFA5C586F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1397" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95A48CE-A0B2-41D1-B66E-77F0336D8DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1398" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA4C02C-3184-4DEE-8D64-567A8F49F283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1399" name="Picture 1398">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A86ECC-0B79-4C8F-977B-DFA1B332E25F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1400" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699CB9FA-C362-45AC-B5CF-9091C8B92B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1401" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F119DCBB-C673-41C7-8F00-5FE7684A11A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1402" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDE7915-401C-4572-B2FC-48D96FD46726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1403" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A800F638-0742-44B2-B42B-E2D0F26E904F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1404" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500396B6-F99D-4DAD-9AD5-B343589BEF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1405" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772770A5-86F7-4255-A24B-30AD1785FF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1406" name="Picture 1405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D5EE6C-284F-4240-A1C6-07CDA04428F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1407" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC32764-134D-4BBE-BE3B-6FA9B0A863AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1408" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F5CFE1-B1B1-4829-9E84-3F6A700FBCCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1409" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E6B165-112E-47F8-A441-503C8E05EC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1410" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6562B2B-5269-4B32-9CCC-A1E21193FB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1411" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DFD2F7-EEC6-4D91-BDBB-5F0E03B0F623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1412" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394EA254-ABBF-424C-B1EC-A6B62592F550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1413" name="Picture 1412">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1969C4F0-DC43-41E0-9A38-E331B2FE81E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1414" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2CBF0A-A12D-42D4-8DBF-32B7592C6BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1415" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F64E88-E95D-4B4B-9C12-DC4938ECCE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1416" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACEBF42-00EC-468C-ADED-B8690161CAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1417" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B553D6D-87FB-4B04-B8C7-F8C51EA7B97F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1418" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C24E09F-C0D1-4BED-8CFE-5B4B277010F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1419" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A6DA63-EFAD-4DD9-AF43-D082AF4CC5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1420" name="Picture 1419">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4200186B-AE30-45F7-9C72-4E134B66BFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1421" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993EE1E6-BF53-40F4-AF15-3F20A3C5EE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1422" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B748D142-EF3A-404B-B148-E65F99720765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1423" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83D44D4-EFFC-436F-8A34-4CB52D545533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1424" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FA04FF-BBBF-4DA1-BE12-D2A1962C9049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1425" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8161E0-1202-4D94-828E-FFC9B02029B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1426" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B76BF4-0170-4E95-B1DC-E48FCDE27FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1427" name="Picture 1426">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F565B023-8C05-43D2-9F3D-6E72CBEC74A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1428" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1752DD8-7D54-459D-BCAF-7B68AE56282F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1429" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A7EB45-D526-4035-92AE-B9B003C569B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1430" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971F90C3-9DA6-4D81-85C5-6DE51FDDF15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1431" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37699FB1-35FB-4E9F-B2DA-AD76200198FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1432" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935D2EBD-156A-499A-9E66-C16578926C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1433" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CB68AE-BD4D-4A85-B48A-A9C7E71FCC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7620" cy="7620"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1434" name="Picture 1433">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5289D0-EA5A-4EFB-91FA-7632830E4D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="7620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1435" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC0B461-B8E2-478C-87EC-19EB3B4975A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1436" name="ID_arrowimage10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1809E4B-AC2B-4819-8129-F4EA99ACB6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1437" name="ID_arrowimage18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1A18F2-C5E4-44A4-B0EE-FF72CAE489DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1438" name="ID_arrowimage17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DEC9ED-4916-41C3-BC81-084A845F05E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1439" name="ID_arrowimage12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC68039-009A-442E-985D-58BF435D885B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
+          <a:ext cx="160020" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="160020" cy="160020"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1440" name="ID_arrowimage11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF949F3-FDF1-4984-AF91-3D5EC6FE42A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27797760"/>
           <a:ext cx="160020" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -53745,10 +59239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E08D3-C5A9-4148-84CC-5384F2D9B95E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O146" sqref="O146"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55883,6 +61377,202 @@
         <v>400</v>
       </c>
     </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D107" xr:uid="{F89E208C-C368-4B92-B953-8D21B77CEAEA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
